--- a/STOCK UTN/2023/09 SEPTEMBER/18 SEPTEMBER - 23 SEPTEMBER 2023.xlsx
+++ b/STOCK UTN/2023/09 SEPTEMBER/18 SEPTEMBER - 23 SEPTEMBER 2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="8190" tabRatio="803" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="8190" tabRatio="803"/>
   </bookViews>
   <sheets>
     <sheet name="JK KENKO" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8206" uniqueCount="3781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8290" uniqueCount="3784">
   <si>
     <t>Abjad "D &amp; R" 260 Kcl</t>
   </si>
@@ -11385,6 +11385,15 @@
   </si>
   <si>
     <t>7025-16</t>
+  </si>
+  <si>
+    <t>Isi GW no.10</t>
+  </si>
+  <si>
+    <t>Kartu Stock Kwarto Hj (1), M(1)</t>
+  </si>
+  <si>
+    <t>Pc Magnit Klg TY-552 Mobil+Anak 21x6.5</t>
   </si>
 </sst>
 </file>
@@ -11955,10 +11964,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C147"/>
+  <dimension ref="A1:F149"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A130" zoomScale="70" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A111" zoomScale="70" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107:G150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
@@ -11966,7 +11975,8 @@
     <col min="1" max="1" width="64" style="6" customWidth="1"/>
     <col min="2" max="2" width="6" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" style="7" customWidth="1"/>
-    <col min="4" max="245" width="9.140625" style="6"/>
+    <col min="4" max="4" width="36" style="6" customWidth="1"/>
+    <col min="5" max="245" width="9.140625" style="6"/>
     <col min="246" max="246" width="50.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="247" max="247" width="9.85546875" style="6" customWidth="1"/>
     <col min="248" max="248" width="12.140625" style="6" customWidth="1"/>
@@ -13271,7 +13281,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="12.75" customHeight="1">
+    <row r="97" spans="1:6" ht="12.75" customHeight="1">
       <c r="A97" s="29" t="s">
         <v>3428</v>
       </c>
@@ -13282,7 +13292,7 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="12.75" customHeight="1">
+    <row r="98" spans="1:6" ht="12.75" customHeight="1">
       <c r="A98" s="29" t="s">
         <v>3734</v>
       </c>
@@ -13293,7 +13303,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="12.75" customHeight="1">
+    <row r="99" spans="1:6" ht="12.75" customHeight="1">
       <c r="A99" s="29" t="s">
         <v>3735</v>
       </c>
@@ -13304,7 +13314,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="12.75" customHeight="1">
+    <row r="100" spans="1:6" ht="12.75" customHeight="1">
       <c r="A100" s="29" t="s">
         <v>3736</v>
       </c>
@@ -13315,7 +13325,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="12.75" customHeight="1">
+    <row r="101" spans="1:6" ht="12.75" customHeight="1">
       <c r="A101" s="29" t="s">
         <v>2849</v>
       </c>
@@ -13326,7 +13336,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="12.75" customHeight="1">
+    <row r="102" spans="1:6" ht="12.75" customHeight="1">
       <c r="A102" s="29" t="s">
         <v>3399</v>
       </c>
@@ -13337,7 +13347,7 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="12.75" customHeight="1">
+    <row r="103" spans="1:6" ht="12.75" customHeight="1">
       <c r="A103" s="29" t="s">
         <v>3737</v>
       </c>
@@ -13348,7 +13358,7 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="12.75" customHeight="1">
+    <row r="104" spans="1:6" ht="12.75" customHeight="1">
       <c r="A104" s="29" t="s">
         <v>3738</v>
       </c>
@@ -13359,17 +13369,17 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="12.75" customHeight="1">
+    <row r="105" spans="1:6" ht="12.75" customHeight="1">
       <c r="A105" s="31"/>
       <c r="B105" s="32"/>
       <c r="C105" s="32"/>
     </row>
-    <row r="106" spans="1:3" ht="12.75" customHeight="1">
+    <row r="106" spans="1:6" ht="12.75" customHeight="1">
       <c r="A106" s="26" t="s">
         <v>2910</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="12.75" customHeight="1">
+    <row r="107" spans="1:6" ht="12.75" customHeight="1">
       <c r="A107" s="3" t="s">
         <v>2912</v>
       </c>
@@ -13379,8 +13389,17 @@
       <c r="C107" s="8" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" ht="12.75" customHeight="1">
+      <c r="D107" s="6" t="s">
+        <v>2912</v>
+      </c>
+      <c r="E107" s="6">
+        <v>6</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="12.75" customHeight="1">
       <c r="A108" s="3" t="s">
         <v>2913</v>
       </c>
@@ -13390,8 +13409,17 @@
       <c r="C108" s="8" t="s">
         <v>1837</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" ht="12.75" customHeight="1">
+      <c r="D108" s="6" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E108" s="6">
+        <v>13</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="12.75" customHeight="1">
       <c r="A109" s="3" t="s">
         <v>3571</v>
       </c>
@@ -13401,8 +13429,17 @@
       <c r="C109" s="8">
         <v>50</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" ht="12.75" customHeight="1">
+      <c r="D109" s="6" t="s">
+        <v>3571</v>
+      </c>
+      <c r="E109" s="6">
+        <v>4</v>
+      </c>
+      <c r="F109" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="12.75" customHeight="1">
       <c r="A110" s="3" t="s">
         <v>3572</v>
       </c>
@@ -13412,8 +13449,17 @@
       <c r="C110" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" ht="12.75" customHeight="1">
+      <c r="D110" s="6" t="s">
+        <v>3572</v>
+      </c>
+      <c r="E110" s="6">
+        <v>7</v>
+      </c>
+      <c r="F110" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="12.75" customHeight="1">
       <c r="A111" s="3" t="s">
         <v>2914</v>
       </c>
@@ -13423,8 +13469,17 @@
       <c r="C111" s="8" t="s">
         <v>1673</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" ht="12.75" customHeight="1">
+      <c r="D111" s="6" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E111" s="6">
+        <v>12</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="12.75" customHeight="1">
       <c r="A112" s="3" t="s">
         <v>2915</v>
       </c>
@@ -13434,8 +13489,17 @@
       <c r="C112" s="8" t="s">
         <v>1673</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" ht="12.75" customHeight="1">
+      <c r="D112" s="6" t="s">
+        <v>2915</v>
+      </c>
+      <c r="E112" s="6">
+        <v>5</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="12.75" customHeight="1">
       <c r="A113" s="3" t="s">
         <v>2916</v>
       </c>
@@ -13445,8 +13509,17 @@
       <c r="C113" s="8" t="s">
         <v>2803</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" ht="12.75" customHeight="1">
+      <c r="D113" s="6" t="s">
+        <v>2916</v>
+      </c>
+      <c r="E113" s="6">
+        <v>5</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="12.75" customHeight="1">
       <c r="A114" s="3" t="s">
         <v>3400</v>
       </c>
@@ -13456,8 +13529,17 @@
       <c r="C114" s="8" t="s">
         <v>1678</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" ht="12.75" customHeight="1">
+      <c r="D114" s="6" t="s">
+        <v>3400</v>
+      </c>
+      <c r="E114" s="6">
+        <v>3</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="12.75" customHeight="1">
       <c r="A115" s="3" t="s">
         <v>3401</v>
       </c>
@@ -13467,8 +13549,17 @@
       <c r="C115" s="8" t="s">
         <v>1705</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" ht="12.75" customHeight="1">
+      <c r="D115" s="6" t="s">
+        <v>3401</v>
+      </c>
+      <c r="E115" s="6">
+        <v>8</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="12.75" customHeight="1">
       <c r="A116" s="3" t="s">
         <v>3573</v>
       </c>
@@ -13478,8 +13569,17 @@
       <c r="C116" s="8" t="s">
         <v>3402</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" ht="12.75" customHeight="1">
+      <c r="D116" s="6" t="s">
+        <v>3573</v>
+      </c>
+      <c r="E116" s="6">
+        <v>13</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="12.75" customHeight="1">
       <c r="A117" s="3" t="s">
         <v>3404</v>
       </c>
@@ -13489,8 +13589,17 @@
       <c r="C117" s="8" t="s">
         <v>3403</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" ht="12.75" customHeight="1">
+      <c r="D117" s="6" t="s">
+        <v>3781</v>
+      </c>
+      <c r="E117" s="6">
+        <v>17</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="12.75" customHeight="1">
       <c r="A118" s="3" t="s">
         <v>3405</v>
       </c>
@@ -13500,8 +13609,17 @@
       <c r="C118" s="8" t="s">
         <v>3063</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" ht="12.75" customHeight="1">
+      <c r="D118" s="6" t="s">
+        <v>3404</v>
+      </c>
+      <c r="E118" s="6">
+        <v>10</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="12.75" customHeight="1">
       <c r="A119" s="3" t="s">
         <v>3406</v>
       </c>
@@ -13511,8 +13629,17 @@
       <c r="C119" s="8" t="s">
         <v>3407</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" ht="12.75" customHeight="1">
+      <c r="D119" s="6" t="s">
+        <v>3405</v>
+      </c>
+      <c r="E119" s="6">
+        <v>4</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="12.75" customHeight="1">
       <c r="A120" s="3" t="s">
         <v>1690</v>
       </c>
@@ -13522,8 +13649,17 @@
       <c r="C120" s="8" t="s">
         <v>1691</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" ht="12.75" customHeight="1">
+      <c r="D120" s="6" t="s">
+        <v>3406</v>
+      </c>
+      <c r="E120" s="6">
+        <v>2</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="12.75" customHeight="1">
       <c r="A121" s="3" t="s">
         <v>3408</v>
       </c>
@@ -13533,8 +13669,17 @@
       <c r="C121" s="8" t="s">
         <v>2517</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" ht="12.75" customHeight="1">
+      <c r="D121" s="6" t="s">
+        <v>1690</v>
+      </c>
+      <c r="E121" s="6">
+        <v>3</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="12.75" customHeight="1">
       <c r="A122" s="3" t="s">
         <v>3409</v>
       </c>
@@ -13544,8 +13689,17 @@
       <c r="C122" s="8" t="s">
         <v>2517</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" ht="12.75" customHeight="1">
+      <c r="D122" s="6" t="s">
+        <v>3408</v>
+      </c>
+      <c r="E122" s="6">
+        <v>26</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="12.75" customHeight="1">
       <c r="A123" s="3" t="s">
         <v>3410</v>
       </c>
@@ -13555,8 +13709,17 @@
       <c r="C123" s="8" t="s">
         <v>2517</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" ht="12.75" customHeight="1">
+      <c r="D123" s="6" t="s">
+        <v>3409</v>
+      </c>
+      <c r="E123" s="6">
+        <v>17</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="12.75" customHeight="1">
       <c r="A124" s="3" t="s">
         <v>3688</v>
       </c>
@@ -13566,8 +13729,17 @@
       <c r="C124" s="8" t="s">
         <v>3411</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" ht="12.75" customHeight="1">
+      <c r="D124" s="6" t="s">
+        <v>3410</v>
+      </c>
+      <c r="E124" s="6">
+        <v>13</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="12.75" customHeight="1">
       <c r="A125" s="3" t="s">
         <v>2917</v>
       </c>
@@ -13577,8 +13749,17 @@
       <c r="C125" s="8" t="s">
         <v>1783</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" ht="12.75" customHeight="1">
+      <c r="D125" s="6" t="s">
+        <v>3782</v>
+      </c>
+      <c r="E125" s="6">
+        <v>2</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>3411</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="12.75" customHeight="1">
       <c r="A126" s="3" t="s">
         <v>3412</v>
       </c>
@@ -13588,8 +13769,17 @@
       <c r="C126" s="8" t="s">
         <v>1702</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" ht="12.75" customHeight="1">
+      <c r="D126" s="6" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E126" s="6">
+        <v>6</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="12.75" customHeight="1">
       <c r="A127" s="3" t="s">
         <v>3523</v>
       </c>
@@ -13599,8 +13789,17 @@
       <c r="C127" s="8" t="s">
         <v>1702</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" ht="12.75" customHeight="1">
+      <c r="D127" s="6" t="s">
+        <v>3412</v>
+      </c>
+      <c r="E127" s="6">
+        <v>52</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="12.75" customHeight="1">
       <c r="A128" s="3" t="s">
         <v>3413</v>
       </c>
@@ -13610,8 +13809,17 @@
       <c r="C128" s="8" t="s">
         <v>1670</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" ht="12.75" customHeight="1">
+      <c r="D128" s="6" t="s">
+        <v>3523</v>
+      </c>
+      <c r="E128" s="6">
+        <v>26</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="12.75" customHeight="1">
       <c r="A129" s="3" t="s">
         <v>3414</v>
       </c>
@@ -13621,8 +13829,17 @@
       <c r="C129" s="8" t="s">
         <v>1670</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" ht="12.75" customHeight="1">
+      <c r="D129" s="6" t="s">
+        <v>3413</v>
+      </c>
+      <c r="E129" s="6">
+        <v>2</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="12.75" customHeight="1">
       <c r="A130" s="3" t="s">
         <v>2918</v>
       </c>
@@ -13632,8 +13849,17 @@
       <c r="C130" s="8" t="s">
         <v>2555</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" ht="12.75" customHeight="1">
+      <c r="D130" s="6" t="s">
+        <v>3414</v>
+      </c>
+      <c r="E130" s="6">
+        <v>5</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="12.75" customHeight="1">
       <c r="A131" s="3" t="s">
         <v>2919</v>
       </c>
@@ -13643,8 +13869,17 @@
       <c r="C131" s="8" t="s">
         <v>1890</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" ht="12.75" customHeight="1">
+      <c r="D131" s="6" t="s">
+        <v>2918</v>
+      </c>
+      <c r="E131" s="6">
+        <v>19</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="12.75" customHeight="1">
       <c r="A132" s="3" t="s">
         <v>2920</v>
       </c>
@@ -13654,8 +13889,17 @@
       <c r="C132" s="8" t="s">
         <v>1890</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" ht="12.75" customHeight="1">
+      <c r="D132" s="6" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E132" s="6">
+        <v>20</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="12.75" customHeight="1">
       <c r="A133" s="3" t="s">
         <v>2921</v>
       </c>
@@ -13665,8 +13909,17 @@
       <c r="C133" s="8" t="s">
         <v>1702</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" ht="12.75" customHeight="1">
+      <c r="D133" s="6" t="s">
+        <v>2920</v>
+      </c>
+      <c r="E133" s="6">
+        <v>20</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="12.75" customHeight="1">
       <c r="A134" s="3" t="s">
         <v>2922</v>
       </c>
@@ -13676,8 +13929,17 @@
       <c r="C134" s="8" t="s">
         <v>1702</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" ht="12.75" customHeight="1">
+      <c r="D134" s="6" t="s">
+        <v>2921</v>
+      </c>
+      <c r="E134" s="6">
+        <v>2</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="12.75" customHeight="1">
       <c r="A135" s="3" t="s">
         <v>2923</v>
       </c>
@@ -13687,8 +13949,17 @@
       <c r="C135" s="8" t="s">
         <v>1702</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" ht="12.75" customHeight="1">
+      <c r="D135" s="6" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E135" s="6">
+        <v>31</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="12.75" customHeight="1">
       <c r="A136" s="3" t="s">
         <v>2924</v>
       </c>
@@ -13698,8 +13969,17 @@
       <c r="C136" s="8" t="s">
         <v>1702</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" ht="12.75" customHeight="1">
+      <c r="D136" s="6" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E136" s="6">
+        <v>20</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="12.75" customHeight="1">
       <c r="A137" s="3" t="s">
         <v>2925</v>
       </c>
@@ -13709,8 +13989,17 @@
       <c r="C137" s="8" t="s">
         <v>1702</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" ht="12.75" customHeight="1">
+      <c r="D137" s="6" t="s">
+        <v>2924</v>
+      </c>
+      <c r="E137" s="6">
+        <v>19</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="12.75" customHeight="1">
       <c r="A138" s="3" t="s">
         <v>2926</v>
       </c>
@@ -13720,8 +14009,17 @@
       <c r="C138" s="8" t="s">
         <v>1744</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" ht="12.75" customHeight="1">
+      <c r="D138" s="6" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E138" s="6">
+        <v>2</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="12.75" customHeight="1">
       <c r="A139" s="3" t="s">
         <v>2927</v>
       </c>
@@ -13731,8 +14029,17 @@
       <c r="C139" s="8" t="s">
         <v>1702</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" ht="12.75" customHeight="1">
+      <c r="D139" s="6" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E139" s="6">
+        <v>7</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="12.75" customHeight="1">
       <c r="A140" s="3" t="s">
         <v>2928</v>
       </c>
@@ -13742,8 +14049,17 @@
       <c r="C140" s="8" t="s">
         <v>1890</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" ht="12.75" customHeight="1">
+      <c r="D140" s="6" t="s">
+        <v>2927</v>
+      </c>
+      <c r="E140" s="6">
+        <v>7</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="12.75" customHeight="1">
       <c r="A141" s="3" t="s">
         <v>2929</v>
       </c>
@@ -13753,8 +14069,17 @@
       <c r="C141" s="8" t="s">
         <v>1890</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" ht="12.75" customHeight="1">
+      <c r="D141" s="6" t="s">
+        <v>2928</v>
+      </c>
+      <c r="E141" s="6">
+        <v>9</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="12.75" customHeight="1">
       <c r="A142" s="3" t="s">
         <v>2930</v>
       </c>
@@ -13764,8 +14089,17 @@
       <c r="C142" s="8" t="s">
         <v>1702</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" ht="12.75" customHeight="1">
+      <c r="D142" s="6" t="s">
+        <v>2929</v>
+      </c>
+      <c r="E142" s="6">
+        <v>24</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="12.75" customHeight="1">
       <c r="A143" s="3" t="s">
         <v>3416</v>
       </c>
@@ -13775,8 +14109,17 @@
       <c r="C143" s="8" t="s">
         <v>3417</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" ht="12.75" customHeight="1">
+      <c r="D143" s="6" t="s">
+        <v>3783</v>
+      </c>
+      <c r="E143" s="6">
+        <v>44</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="12.75" customHeight="1">
       <c r="A144" s="3" t="s">
         <v>3418</v>
       </c>
@@ -13786,8 +14129,17 @@
       <c r="C144" s="8" t="s">
         <v>3348</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D144" s="6" t="s">
+        <v>2930</v>
+      </c>
+      <c r="E144" s="6">
+        <v>26</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="14.25" customHeight="1">
       <c r="A145" s="3" t="s">
         <v>2931</v>
       </c>
@@ -13797,8 +14149,17 @@
       <c r="C145" s="8" t="s">
         <v>1717</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D145" s="6" t="s">
+        <v>3416</v>
+      </c>
+      <c r="E145" s="6">
+        <v>17</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="14.25" customHeight="1">
       <c r="A146" s="3" t="s">
         <v>3419</v>
       </c>
@@ -13808,8 +14169,17 @@
       <c r="C146" s="8" t="s">
         <v>2007</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D146" s="6" t="s">
+        <v>3418</v>
+      </c>
+      <c r="E146" s="6">
+        <v>2</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="14.25" customHeight="1">
       <c r="A147" s="3" t="s">
         <v>3420</v>
       </c>
@@ -13817,6 +14187,37 @@
         <v>12</v>
       </c>
       <c r="C147" s="8" t="s">
+        <v>2906</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>2931</v>
+      </c>
+      <c r="E147" s="6">
+        <v>10</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="14.25" customHeight="1">
+      <c r="D148" s="6" t="s">
+        <v>3419</v>
+      </c>
+      <c r="E148" s="6">
+        <v>2</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="14.25" customHeight="1">
+      <c r="D149" s="6" t="s">
+        <v>3420</v>
+      </c>
+      <c r="E149" s="6">
+        <v>12</v>
+      </c>
+      <c r="F149" s="6" t="s">
         <v>2906</v>
       </c>
     </row>
@@ -14121,7 +14522,7 @@
     <row r="2" spans="1:3">
       <c r="A2" s="34" t="str">
         <f ca="1">"TANGGAL : "&amp;SUBSTITUTE(MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1),".xlsx","")</f>
-        <v>TANGGAL : 18 SEPTEMBER - 23 SEPTEMBER 2023</v>
+        <v>TANGGAL : LOG_AGUSTUS_3.XLSX</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -39593,7 +39994,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F997"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A973" zoomScale="70" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A973" zoomScale="70" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F997"/>
     </sheetView>
   </sheetViews>
